--- a/model/ModelData/PEEP8/RR13/C_T0.02/PaO20/Data/Data.xlsx
+++ b/model/ModelData/PEEP8/RR13/C_T0.02/PaO20/Data/Data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Time</t>
   </si>
@@ -89,6 +89,21 @@
   <si>
     <t>Data4</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Qa(Airflow)</t>
+  </si>
 </sst>
 </file>
 
@@ -145,19 +160,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
